--- a/unity-business-innovation/src/main/resources/template/ipa.xlsx
+++ b/unity-business-innovation/src/main/resources/template/ipa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qinhuan/Documents/jkWorkspace/innovationpublish-api/unity-business-innovation/src/main/resources/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04A4BA4C-516B-5A43-89B4-16ED0D384B82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84884A6E-B69D-224E-98F8-8C3FCC6A18BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{3792454A-560D-2844-808A-BE8389129DD9}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19440" xr2:uid="{3792454A-560D-2844-808A-BE8389129DD9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -84,7 +84,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -110,17 +110,30 @@
       <b/>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
+      <name val="微软雅黑 Bold"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="微软雅黑 Bold"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
-      <sz val="22"/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="等线 (正文)"/>
-      <family val="3"/>
+      <name val="微软雅黑 Bold"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -132,7 +145,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
+        <fgColor rgb="FF05CCFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -167,14 +180,20 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -495,7 +514,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -507,19 +526,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="36" customHeight="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
     </row>
     <row r="2" spans="1:4" ht="27" customHeight="1">
       <c r="A2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="33" customHeight="1">
+    <row r="3" spans="1:4" s="2" customFormat="1" ht="30" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -535,14 +554,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="33" customHeight="1">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:4" s="2" customFormat="1" ht="30" customHeight="1">
+      <c r="A6" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -551,17 +570,17 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="33" customHeight="1">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:4" s="2" customFormat="1" ht="30" customHeight="1">
+      <c r="A8" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -570,17 +589,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="33" customHeight="1">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:4" s="2" customFormat="1" ht="30" customHeight="1">
+      <c r="A10" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="3" t="s">
         <v>5</v>
       </c>
     </row>

--- a/unity-business-innovation/src/main/resources/template/ipa.xlsx
+++ b/unity-business-innovation/src/main/resources/template/ipa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qinhuan/Documents/jkWorkspace/innovationpublish-api/unity-business-innovation/src/main/resources/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84884A6E-B69D-224E-98F8-8C3FCC6A18BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A33AC6B-5F00-EB47-BFDF-188182DD9E2C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19440" xr2:uid="{3792454A-560D-2844-808A-BE8389129DD9}"/>
   </bookViews>
@@ -150,7 +150,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -169,6 +169,21 @@
         <color indexed="64"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -193,7 +208,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -514,7 +529,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
